--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>33.7180749278562</v>
+        <v>0.2583983333333333</v>
       </c>
       <c r="H2">
-        <v>33.7180749278562</v>
+        <v>0.775195</v>
       </c>
       <c r="I2">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717037</v>
       </c>
       <c r="J2">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717038</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>80.8854473892881</v>
+        <v>81.979392</v>
       </c>
       <c r="N2">
-        <v>80.8854473892881</v>
+        <v>245.938176</v>
       </c>
       <c r="O2">
-        <v>0.5401757135953029</v>
+        <v>0.523851352180617</v>
       </c>
       <c r="P2">
-        <v>0.5401757135953029</v>
+        <v>0.523851352180617</v>
       </c>
       <c r="Q2">
-        <v>2727.301575645187</v>
+        <v>21.18333826048</v>
       </c>
       <c r="R2">
-        <v>2727.301575645187</v>
+        <v>190.65004434432</v>
       </c>
       <c r="S2">
-        <v>0.5331363077366672</v>
+        <v>0.003769235800274142</v>
       </c>
       <c r="T2">
-        <v>0.5331363077366672</v>
+        <v>0.003769235800274143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>33.7180749278562</v>
+        <v>0.2583983333333333</v>
       </c>
       <c r="H3">
-        <v>33.7180749278562</v>
+        <v>0.775195</v>
       </c>
       <c r="I3">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717037</v>
       </c>
       <c r="J3">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717038</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.1139377648293</v>
+        <v>22.17197066666667</v>
       </c>
       <c r="N3">
-        <v>22.1139377648293</v>
+        <v>66.515912</v>
       </c>
       <c r="O3">
-        <v>0.1476830814204132</v>
+        <v>0.1416797140218155</v>
       </c>
       <c r="P3">
-        <v>0.1476830814204132</v>
+        <v>0.1416797140218155</v>
       </c>
       <c r="Q3">
-        <v>745.6394105044632</v>
+        <v>5.729200266982223</v>
       </c>
       <c r="R3">
-        <v>745.6394105044632</v>
+        <v>51.56280240284</v>
       </c>
       <c r="S3">
-        <v>0.1457585203518438</v>
+        <v>0.001019419436526537</v>
       </c>
       <c r="T3">
-        <v>0.1457585203518438</v>
+        <v>0.001019419436526538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>33.7180749278562</v>
+        <v>0.2583983333333333</v>
       </c>
       <c r="H4">
-        <v>33.7180749278562</v>
+        <v>0.775195</v>
       </c>
       <c r="I4">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717037</v>
       </c>
       <c r="J4">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717038</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.9314427611288</v>
+        <v>29.98794266666667</v>
       </c>
       <c r="N4">
-        <v>25.9314427611288</v>
+        <v>89.96382800000001</v>
       </c>
       <c r="O4">
-        <v>0.1731774509527354</v>
+        <v>0.1916240646801595</v>
       </c>
       <c r="P4">
-        <v>0.1731774509527354</v>
+        <v>0.1916240646801595</v>
       </c>
       <c r="Q4">
-        <v>874.3583300071551</v>
+        <v>7.748834405162223</v>
       </c>
       <c r="R4">
-        <v>874.3583300071551</v>
+        <v>69.73950964646001</v>
       </c>
       <c r="S4">
-        <v>0.1709206550025687</v>
+        <v>0.001378780987736143</v>
       </c>
       <c r="T4">
-        <v>0.1709206550025687</v>
+        <v>0.001378780987736143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>33.7180749278562</v>
+        <v>0.2583983333333333</v>
       </c>
       <c r="H5">
-        <v>33.7180749278562</v>
+        <v>0.775195</v>
       </c>
       <c r="I5">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717037</v>
       </c>
       <c r="J5">
-        <v>0.9869683036806989</v>
+        <v>0.007195239230717038</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.8083131707729</v>
+        <v>22.35431</v>
       </c>
       <c r="N5">
-        <v>20.8083131707729</v>
+        <v>67.06293000000001</v>
       </c>
       <c r="O5">
-        <v>0.1389637540315485</v>
+        <v>0.142844869117408</v>
       </c>
       <c r="P5">
-        <v>0.1389637540315485</v>
+        <v>0.1428448691174081</v>
       </c>
       <c r="Q5">
-        <v>701.6162626144177</v>
+        <v>5.776316446816668</v>
       </c>
       <c r="R5">
-        <v>701.6162626144177</v>
+        <v>51.98684802135001</v>
       </c>
       <c r="S5">
-        <v>0.1371528205896193</v>
+        <v>0.001027803006180215</v>
       </c>
       <c r="T5">
-        <v>0.1371528205896193</v>
+        <v>0.001027803006180215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.44520549575158</v>
+        <v>35.10542566666667</v>
       </c>
       <c r="H6">
-        <v>0.44520549575158</v>
+        <v>105.316277</v>
       </c>
       <c r="I6">
-        <v>0.01303169631930108</v>
+        <v>0.9775292770250872</v>
       </c>
       <c r="J6">
-        <v>0.01303169631930108</v>
+        <v>0.9775292770250873</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.8854473892881</v>
+        <v>81.979392</v>
       </c>
       <c r="N6">
-        <v>80.8854473892881</v>
+        <v>245.938176</v>
       </c>
       <c r="O6">
-        <v>0.5401757135953029</v>
+        <v>0.523851352180617</v>
       </c>
       <c r="P6">
-        <v>0.5401757135953029</v>
+        <v>0.523851352180617</v>
       </c>
       <c r="Q6">
-        <v>36.01064570403636</v>
+        <v>2877.921452054528</v>
       </c>
       <c r="R6">
-        <v>36.01064570403636</v>
+        <v>25901.29306849075</v>
       </c>
       <c r="S6">
-        <v>0.007039405858635741</v>
+        <v>0.5120800335657328</v>
       </c>
       <c r="T6">
-        <v>0.007039405858635741</v>
+        <v>0.5120800335657328</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.44520549575158</v>
+        <v>35.10542566666667</v>
       </c>
       <c r="H7">
-        <v>0.44520549575158</v>
+        <v>105.316277</v>
       </c>
       <c r="I7">
-        <v>0.01303169631930108</v>
+        <v>0.9775292770250872</v>
       </c>
       <c r="J7">
-        <v>0.01303169631930108</v>
+        <v>0.9775292770250873</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.1139377648293</v>
+        <v>22.17197066666667</v>
       </c>
       <c r="N7">
-        <v>22.1139377648293</v>
+        <v>66.515912</v>
       </c>
       <c r="O7">
-        <v>0.1476830814204132</v>
+        <v>0.1416797140218155</v>
       </c>
       <c r="P7">
-        <v>0.1476830814204132</v>
+        <v>0.1416797140218155</v>
       </c>
       <c r="Q7">
-        <v>9.845246625610415</v>
+        <v>778.3564681221804</v>
       </c>
       <c r="R7">
-        <v>9.845246625610415</v>
+        <v>7005.208213099624</v>
       </c>
       <c r="S7">
-        <v>0.00192456106856944</v>
+        <v>0.1384960684168664</v>
       </c>
       <c r="T7">
-        <v>0.00192456106856944</v>
+        <v>0.1384960684168664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.44520549575158</v>
+        <v>35.10542566666667</v>
       </c>
       <c r="H8">
-        <v>0.44520549575158</v>
+        <v>105.316277</v>
       </c>
       <c r="I8">
-        <v>0.01303169631930108</v>
+        <v>0.9775292770250872</v>
       </c>
       <c r="J8">
-        <v>0.01303169631930108</v>
+        <v>0.9775292770250873</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.9314427611288</v>
+        <v>29.98794266666667</v>
       </c>
       <c r="N8">
-        <v>25.9314427611288</v>
+        <v>89.96382800000001</v>
       </c>
       <c r="O8">
-        <v>0.1731774509527354</v>
+        <v>0.1916240646801595</v>
       </c>
       <c r="P8">
-        <v>0.1731774509527354</v>
+        <v>0.1916240646801595</v>
       </c>
       <c r="Q8">
-        <v>11.54482083002207</v>
+        <v>1052.739492180929</v>
       </c>
       <c r="R8">
-        <v>11.54482083002207</v>
+        <v>9474.655429628358</v>
       </c>
       <c r="S8">
-        <v>0.002256795950166705</v>
+        <v>0.1873181334074049</v>
       </c>
       <c r="T8">
-        <v>0.002256795950166705</v>
+        <v>0.1873181334074049</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>35.10542566666667</v>
+      </c>
+      <c r="H9">
+        <v>105.316277</v>
+      </c>
+      <c r="I9">
+        <v>0.9775292770250872</v>
+      </c>
+      <c r="J9">
+        <v>0.9775292770250873</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>22.35431</v>
+      </c>
+      <c r="N9">
+        <v>67.06293000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.142844869117408</v>
+      </c>
+      <c r="P9">
+        <v>0.1428448691174081</v>
+      </c>
+      <c r="Q9">
+        <v>784.7575680346234</v>
+      </c>
+      <c r="R9">
+        <v>7062.818112311611</v>
+      </c>
+      <c r="S9">
+        <v>0.1396350416350831</v>
+      </c>
+      <c r="T9">
+        <v>0.1396350416350831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5485793333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.645738</v>
+      </c>
+      <c r="I10">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="J10">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>81.979392</v>
+      </c>
+      <c r="N10">
+        <v>245.938176</v>
+      </c>
+      <c r="O10">
+        <v>0.523851352180617</v>
+      </c>
+      <c r="P10">
+        <v>0.523851352180617</v>
+      </c>
+      <c r="Q10">
+        <v>44.972200210432</v>
+      </c>
+      <c r="R10">
+        <v>404.749801893888</v>
+      </c>
+      <c r="S10">
+        <v>0.008002082814609958</v>
+      </c>
+      <c r="T10">
+        <v>0.008002082814609958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.44520549575158</v>
-      </c>
-      <c r="H9">
-        <v>0.44520549575158</v>
-      </c>
-      <c r="I9">
-        <v>0.01303169631930108</v>
-      </c>
-      <c r="J9">
-        <v>0.01303169631930108</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>20.8083131707729</v>
-      </c>
-      <c r="N9">
-        <v>20.8083131707729</v>
-      </c>
-      <c r="O9">
-        <v>0.1389637540315485</v>
-      </c>
-      <c r="P9">
-        <v>0.1389637540315485</v>
-      </c>
-      <c r="Q9">
-        <v>9.263975380948082</v>
-      </c>
-      <c r="R9">
-        <v>9.263975380948082</v>
-      </c>
-      <c r="S9">
-        <v>0.001810933441929191</v>
-      </c>
-      <c r="T9">
-        <v>0.001810933441929191</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5485793333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.645738</v>
+      </c>
+      <c r="I11">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="J11">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.17197066666667</v>
+      </c>
+      <c r="N11">
+        <v>66.515912</v>
+      </c>
+      <c r="O11">
+        <v>0.1416797140218155</v>
+      </c>
+      <c r="P11">
+        <v>0.1416797140218155</v>
+      </c>
+      <c r="Q11">
+        <v>12.16308488700622</v>
+      </c>
+      <c r="R11">
+        <v>109.467763983056</v>
+      </c>
+      <c r="S11">
+        <v>0.00216422616842254</v>
+      </c>
+      <c r="T11">
+        <v>0.002164226168422541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5485793333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.645738</v>
+      </c>
+      <c r="I12">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="J12">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>29.98794266666667</v>
+      </c>
+      <c r="N12">
+        <v>89.96382800000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1916240646801595</v>
+      </c>
+      <c r="P12">
+        <v>0.1916240646801595</v>
+      </c>
+      <c r="Q12">
+        <v>16.45076559611822</v>
+      </c>
+      <c r="R12">
+        <v>148.056890365064</v>
+      </c>
+      <c r="S12">
+        <v>0.002927150285018484</v>
+      </c>
+      <c r="T12">
+        <v>0.002927150285018485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5485793333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.645738</v>
+      </c>
+      <c r="I13">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="J13">
+        <v>0.01527548374419571</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>22.35431</v>
+      </c>
+      <c r="N13">
+        <v>67.06293000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.142844869117408</v>
+      </c>
+      <c r="P13">
+        <v>0.1428448691174081</v>
+      </c>
+      <c r="Q13">
+        <v>12.26311247692667</v>
+      </c>
+      <c r="R13">
+        <v>110.36801229234</v>
+      </c>
+      <c r="S13">
+        <v>0.002182024476144731</v>
+      </c>
+      <c r="T13">
+        <v>0.002182024476144732</v>
       </c>
     </row>
   </sheetData>
